--- a/Excel/CodeV_optimization_operands.xlsx
+++ b/Excel/CodeV_optimization_operands.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Special Lens Data" sheetId="1" r:id="rId1"/>
     <sheet name="LDM Input Commands" sheetId="2" r:id="rId2"/>
+    <sheet name="Optical Database Information" sheetId="3" r:id="rId3"/>
+    <sheet name="Options Database Information" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="633">
   <si>
     <t>AR_</t>
   </si>
@@ -3547,13 +3549,2938 @@
   </si>
   <si>
     <t>Returns the X|Y|Z-decenter value</t>
+  </si>
+  <si>
+    <r>
+      <t>ADE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sk [Zn]</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns the Alpha|Beta|Gamma Tilt angle (degrees)</t>
+  </si>
+  <si>
+    <t>xyz decenter</t>
+  </si>
+  <si>
+    <t>alpha beta gamma tilt</t>
+  </si>
+  <si>
+    <r>
+      <t>|XOD|YOD|ZOD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sk [Zn]</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns X|Y|Z-offset for the decenter/tilt location</t>
+  </si>
+  <si>
+    <t>xyz offset for the decentered tilt location</t>
+  </si>
+  <si>
+    <r>
+      <t>RET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sk</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns, for surface k, the number of the surface “returned to”</t>
+  </si>
+  <si>
+    <r>
+      <t>GLB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sk</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns, for surface k, the number of the global reference surface.</t>
+  </si>
+  <si>
+    <t>number of surface returned to</t>
+  </si>
+  <si>
+    <t>number of global reference surface</t>
+  </si>
+  <si>
+    <r>
+      <t>AEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AEZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AEA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AEB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AEG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sk Cj</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns general array parameters</t>
+  </si>
+  <si>
+    <r>
+      <t>ARX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ARS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AMX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AMY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sk</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns parallel array parameters</t>
+  </si>
+  <si>
+    <t>APD|APT Sk Cj</t>
+  </si>
+  <si>
+    <t>Returns polynomial array parameters</t>
+  </si>
+  <si>
+    <t>Apertures/Edge Definition</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ALB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sk [Aj] [Zn] [CLR|EDG|HOL|OBS]</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns the value of an aperture label.</t>
+  </si>
+  <si>
+    <t>If the A qualifier and label are omitted, the default is A1. Use AL to specify the last aperture.</t>
+  </si>
+  <si>
+    <r>
+      <t>APE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sk [Aj | L'label'] [Zn] [CLR|EDG|HOL|OBS] ADX|ADY|ARO|SZX|SZY</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns the value of an aperture parameter (no default).</t>
+  </si>
+  <si>
+    <t>SZX is Size in X, either radius or X-half width.</t>
+  </si>
+  <si>
+    <t>SZY is Size in Y, either radius of Y-half width.</t>
+  </si>
+  <si>
+    <t>If the A qualifier and label are omitted, the default is A1. If an A qualifier and label are defined, the A qualifier will be used. Use AL to specify the last aperture.</t>
+  </si>
+  <si>
+    <t>If the Z qualifier is omitted, the default is Z1.</t>
+  </si>
+  <si>
+    <r>
+      <t>ASH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sk [Aj | L'label'] [Zn] [CLR|EDG|HOL|OBS]</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns the shape for the specified aperture and aperture type. The possible values are CIG, ELG, and REG, corresponding to circle, ellipse, and rectangle, respectively.</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>+1 – Yes</t>
+  </si>
+  <si>
+    <t>-1 – APE</t>
+  </si>
+  <si>
+    <r>
+      <t>CIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ELX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ELY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ARO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sk [Cj] [Zn] [L'label'] [CLR|EDG|OBS|HOL]</t>
+    </r>
+  </si>
+  <si>
+    <t>MAP Sk [Zn]</t>
+  </si>
+  <si>
+    <t>Evaluates the maximum dimension for each clear aperture component on Sk at Zn, measured from the origin for each aperture component and returns the largest value. If Zn is omitted, the maximum over all zoom positions is returned</t>
+  </si>
+  <si>
+    <t>MAV Sk [Zn]</t>
+  </si>
+  <si>
+    <t>Evaluates the maximum dimension for each clear aperture component on Sk at Zn, measured from the surface coordinate origin, and returns the largest value. If Zn is omitted, the maximum over all zoom positions is returned. The surface coordinate origin is typically the surface vertex, but the surface coordinate system can be displaced from the surface vertex for SPS Q2D and SPS ZFE surface types.</t>
+  </si>
+  <si>
+    <t>MNR Sk [Zn]</t>
+  </si>
+  <si>
+    <t>Evaluates the maximum dimension for each clear aperture component on Sk at Zn, measured from a coordinate on the surface that depends on the surface definition:</t>
+  </si>
+  <si>
+    <t>- SPS Q2D and SPS ZFE surface types support an off-axis angle parameter that shifts the origin of the surface coordinate system relative to the surface vertex, as well as X- and Y-offsets of the center of a polynomial departure from the coordinate origin. For these surface types, the maximum dimensions for each clear aperture component are measured from the offset point, or if no offsets are defined, from the coordinate origin.</t>
+  </si>
+  <si>
+    <t>- For all other surface types, the maximum dimensions are measured from the surface vertex (the same as the MAV database item).</t>
+  </si>
+  <si>
+    <t>MNR returns the largest value for the aperture components. If Zn is omitted, the maximum over all zoom positions is returned.</t>
+  </si>
+  <si>
+    <r>
+      <t>ORA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sk [Aj | L'label'] [Zn] [CLR|EDG|HOL|OBS]</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns the ORed status (set with the ORA command) of an aperture. If the aperture is ORed with the group of apertures before it, returns a value of 1; otherwise, returns a value of 0.</t>
+  </si>
+  <si>
+    <t>First Surface Mirrors</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CUM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sk</t>
+    </r>
+  </si>
+  <si>
+    <t>– Returns back surface curvature for front surface mirror</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">THM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sk</t>
+    </r>
+  </si>
+  <si>
+    <t>– Returns substrate thickness for front surface mirror</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GLM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sk [CAT]</t>
+    </r>
+  </si>
+  <si>
+    <t>– Returns string with glass name (CAT - catalog only)</t>
+  </si>
+  <si>
+    <t>Coating/Cement Data</t>
+  </si>
+  <si>
+    <r>
+      <t>CIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CTH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CEM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MLT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sk</t>
+    </r>
+  </si>
+  <si>
+    <t>– Returns 'coating_filename'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">THV </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sk Cj</t>
+    </r>
+  </si>
+  <si>
+    <t>– Returns coefficient for coating thickness variation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">THV </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XDE Sk</t>
+    </r>
+  </si>
+  <si>
+    <t>– Returns decentration of coating thickness variation in x direction</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">THV </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YDE Sk</t>
+    </r>
+  </si>
+  <si>
+    <t>– Returns decentration of coating thickness variation in y direction</t>
+  </si>
+  <si>
+    <t>Derivative Increments for Optimization</t>
+  </si>
+  <si>
+    <r>
+      <t>DER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ik</t>
+    </r>
+  </si>
+  <si>
+    <t>– Returns derivative increment value</t>
+  </si>
+  <si>
+    <r>
+      <t>VAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ik</t>
+    </r>
+  </si>
+  <si>
+    <t>– Returns derivative value string name</t>
+  </si>
+  <si>
+    <t>– Returns current number of variables</t>
+  </si>
+  <si>
+    <t>Tolerances</t>
+  </si>
+  <si>
+    <r>
+      <t>DLF|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DLT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DLN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DLV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DLR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DLC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DAK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DAA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DAB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DAE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DAF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DAH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DAJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HOM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AXG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RAG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sk [Zn] [L'label'] [C]</t>
+    </r>
+  </si>
+  <si>
+    <t>Centered</t>
+  </si>
+  <si>
+    <r>
+      <t>CYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CYD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sk [Zn] [L'label'] [C]</t>
+    </r>
+  </si>
+  <si>
+    <t>Irregularity</t>
+  </si>
+  <si>
+    <t>Single Surface Decenter and Displacement</t>
+  </si>
+  <si>
+    <r>
+      <t>DLX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DLY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DLZ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sk [Zn] [L'label'] [C]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DLA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DLB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DLG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sk [Zn] [L'label'] [C]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TRX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TRY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sk [Zn] [L'label'] [C]</t>
+    </r>
+  </si>
+  <si>
+    <t>Group Decentering</t>
+  </si>
+  <si>
+    <r>
+      <t>STX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">STY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Si..j [Zn] [L'label'] [C]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BTX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BTY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BRL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Si..j [Zn] [L'label'] [C] [R]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DSX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DSY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DSZ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Si..j [Zn] [L'label'] [C] [R]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RLX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RLY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Si..j [Zn] [L'label'] [C] [R]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DOL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Si..j [Zn] [L'label'] [C]</t>
+    </r>
+  </si>
+  <si>
+    <t>Zernike Polynomial</t>
+  </si>
+  <si>
+    <r>
+      <t>ZRN|ZFR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sk [Zn] [C] [L'label']</t>
+    </r>
+  </si>
+  <si>
+    <t>Polarization</t>
+  </si>
+  <si>
+    <r>
+      <t>BMA|BMB|BMG|BMN|PPA|PPF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PPO|PPR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sk [Zn] [C] [L'label]</t>
+    </r>
+  </si>
+  <si>
+    <t>Optical Definitions</t>
+  </si>
+  <si>
+    <t>EPD|EXD|FNO|NA|NAO [Zn]</t>
+  </si>
+  <si>
+    <t>Returns pupil definition</t>
+  </si>
+  <si>
+    <t>EFL [Zn]</t>
+  </si>
+  <si>
+    <t>EFX|EFY|FPX|FPY [Si..j] [Wk] [Zn]</t>
+  </si>
+  <si>
+    <t>Returns effective focal length</t>
+  </si>
+  <si>
+    <t>RED [Wk] [Zn]</t>
+  </si>
+  <si>
+    <t>Returns reduction ratio</t>
+  </si>
+  <si>
+    <t>ENP|EXP [Zn] [Fm]</t>
+  </si>
+  <si>
+    <t>Returns entrance and exit pupil distances</t>
+  </si>
+  <si>
+    <t>DIX|DIY [Zn] [Fm]</t>
+  </si>
+  <si>
+    <t>Returns fractional distortion</t>
+  </si>
+  <si>
+    <t>XFO|YFO [Zn] [Fm]</t>
+  </si>
+  <si>
+    <t>Returns X/Y close skew ray focal shift</t>
+  </si>
+  <si>
+    <t>YNI Sk [Zn]</t>
+  </si>
+  <si>
+    <t>Returns product of paraxial y, ni</t>
+  </si>
+  <si>
+    <t>AFN [Si..j] [Zn]</t>
+  </si>
+  <si>
+    <t>Returns the ANSI f/no of the surface group</t>
+  </si>
+  <si>
+    <t>Manufacturing and Packaging</t>
+  </si>
+  <si>
+    <r>
+      <t>CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sk [Zn] [MEC [IDS]]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns physical surface-to-surface thickness along the Z-axis (accounts for piston terms on Zernike surfaces and can ignore dummy surfaces via MEC IDS keywords) </t>
+  </si>
+  <si>
+    <t>Returns edge thickness</t>
+  </si>
+  <si>
+    <t>Returns semi-diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns the ratio of center thickness to diameter </t>
+  </si>
+  <si>
+    <t>ATE Sk [Zn] [MEC [IDS] [overage_factor [overage_constant]]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns the ratio of edge thickness to diameter </t>
+  </si>
+  <si>
+    <t>IMC [Zn] [MEC [IDS] [overage_factor [overage_constant]]]</t>
+  </si>
+  <si>
+    <t>Returns image surface clearance (edge or center)</t>
+  </si>
+  <si>
+    <t>ET Sk [Zn] [MEC [IDS] [overage_factor [overage_constant]]]</t>
+  </si>
+  <si>
+    <t>SD Sk [Zn] [MEC [overage_factor [overage_constant]]])</t>
+  </si>
+  <si>
+    <t>ATC Sk [Zn] [MEC [IDS] [overage_factor [overage_constant]]]</t>
+  </si>
+  <si>
+    <t>IMD [Zn]</t>
+  </si>
+  <si>
+    <t>Returns image distance plus defocus</t>
+  </si>
+  <si>
+    <t>TT [Zn]</t>
+  </si>
+  <si>
+    <t>Returns total track - object to image (finite conjugate only)</t>
+  </si>
+  <si>
+    <r>
+      <t>BLO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sk [Zn]</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns blocking ratio (semi-diameter/radius)</t>
+  </si>
+  <si>
+    <r>
+      <t>OAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Si..j] [Zn]</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns overall length from Si to Sj (note that the thickness following Sj is not included)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns global surface location and orientation from GSC output </t>
+  </si>
+  <si>
+    <t>ASC|BSC|CSC|XSC|YSC|ZSC|LSC|MSC|NSC Sk [Zn] Gj</t>
+  </si>
+  <si>
+    <t>SN2 Sk [Zn]</t>
+  </si>
+  <si>
+    <t>Returns the General Tolerance Sensitivity value (between 0 and 1)</t>
+  </si>
+  <si>
+    <t>SNS Sk [Zn]</t>
+  </si>
+  <si>
+    <t>Returns sensitivity of tilt/decenter</t>
+  </si>
+  <si>
+    <t>QSG Sk [Zn]</t>
+  </si>
+  <si>
+    <t>Returns RMS sag departure from the base conic in lens units for Qcon aspheres</t>
+  </si>
+  <si>
+    <t>QSL Sk [Zn]</t>
+  </si>
+  <si>
+    <t>Returns RMS slope departure from the base conic in waves per aperture radius at the fringe wavelength (FRW) for Qbfs and Q2D aspheres</t>
+  </si>
+  <si>
+    <t>NRF Sk [Zn]</t>
+  </si>
+  <si>
+    <t>Returns normalization radius, which represents the ratio of the NRADIUS/MAV at that surface</t>
+  </si>
+  <si>
+    <t>Paraxial Ray Trace Data</t>
+  </si>
+  <si>
+    <t>UMX|UMY [Sk] [Zn] [Wj]</t>
+  </si>
+  <si>
+    <t>Returns the X/Y-plane paraxial marginal ray exiting slope angle</t>
+  </si>
+  <si>
+    <t>HMX|HMY [Sk] [Zn] [Wj]</t>
+  </si>
+  <si>
+    <t>Returns the X/Y-plane paraxial marginal ray height</t>
+  </si>
+  <si>
+    <t>IMX|IMY [Sk] [Zn] [Wj]</t>
+  </si>
+  <si>
+    <t>Returns the X/Y-plane paraxial marginal ray angle of incidence/refraction/reflection</t>
+  </si>
+  <si>
+    <t>UCX|UCY [Sk] [Zn] [Wj]</t>
+  </si>
+  <si>
+    <t>Returns the X/Y-plane paraxial chief ray exiting slope angle</t>
+  </si>
+  <si>
+    <t>HCX|HCY [Sk] [Zn] [Wj]</t>
+  </si>
+  <si>
+    <t>Returns the X/Y-plane paraxial chief ray height</t>
+  </si>
+  <si>
+    <t>ICX|ICY [Sk] [Zn] [Wj]</t>
+  </si>
+  <si>
+    <t>Returns the X/Y-plane paraxial chief ray angle of incidence/refraction/ reflection</t>
+  </si>
+  <si>
+    <t>First- and Third-order Aberrations</t>
+  </si>
+  <si>
+    <t>AX [Sk | Si..j] [Zn] [Wj..k]</t>
+  </si>
+  <si>
+    <t>Returns the primary transverse axial color</t>
+  </si>
+  <si>
+    <t>LAT [Sk | Si..j] [Zn] [Wj..k]</t>
+  </si>
+  <si>
+    <t>Returns the primary transverse lateral color</t>
+  </si>
+  <si>
+    <t>SA [Sk | Si..j] [Zn] [Wj..k]</t>
+  </si>
+  <si>
+    <t>Returns the third order transverse spherical aberration</t>
+  </si>
+  <si>
+    <t>TCO [Sk | Si..j] [Zn] [Wj..k]</t>
+  </si>
+  <si>
+    <t>Returns the third order tangential coma</t>
+  </si>
+  <si>
+    <t>SAS [Sk | Si..j] [Zn] [Wj..k]</t>
+  </si>
+  <si>
+    <t>Returns the third order transverse sagittal astigmatism</t>
+  </si>
+  <si>
+    <t>TAS [Sk | Si..j] [Zn] [Wj..k]</t>
+  </si>
+  <si>
+    <t>Returns the third order transverse tangential astigmatism</t>
+  </si>
+  <si>
+    <t>PTB [Sk | Si..j] [Zn] [Wj..k]</t>
+  </si>
+  <si>
+    <t>Returns third order transverse Petzval blur</t>
+  </si>
+  <si>
+    <t>DST [Sk | Si..j] [Zn] [Wj..k]</t>
+  </si>
+  <si>
+    <t>Returns the third order transverse distortion</t>
+  </si>
+  <si>
+    <t>PTZ Sk|Si..j [Zn] [Wj]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns third order Petzval surface curvature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Ray Trace Data </t>
+  </si>
+  <si>
+    <t>RSI, SIN</t>
+  </si>
+  <si>
+    <t>Returns single item for designated ray, tracing only when needed; if Rj is omitted, Fm and Wj are ignored and value returned is for last RSI or SIN traced</t>
+  </si>
+  <si>
+    <r>
+      <t>OP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Si..j] [Zn] [Fm] [Wj] [Ri] [RFS]</t>
+    </r>
+  </si>
+  <si>
+    <t>The optional keyword RFS specifies that the optical path length from the object surface to the first surface is measured from a reference sphere centered at the object. This can be useful for systems with long object distances. If RFS is omitted, the optical path length is measured from the object point. RFS is only valid when the first surface number of the specified range is the object surface.</t>
+  </si>
+  <si>
+    <r>
+      <t>OPR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Si..j] [Zn] [Fm] [Wj] [Ri]</t>
+    </r>
+  </si>
+  <si>
+    <t>Equivalent to the OP database item with the RFS keyword. Can be a user-defined constraint in AUT.</t>
+  </si>
+  <si>
+    <r>
+      <t>OPD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [ Zn ] [ Fm ] [ Wj ] [ Ri ]</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns the optical path difference</t>
+  </si>
+  <si>
+    <r>
+      <t>PXI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PYI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PFR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Sk] [Zn] [Fm] [Wj] [R0|R1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PRO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Sk] [Zn] [Fm] [Wj] [R0|R1]</t>
+    </r>
+  </si>
+  <si>
+    <t>SCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lens scaling
+</t>
+  </si>
+  <si>
+    <r>
+      <t>JR1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JR2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JR3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JR4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Sk] [Zn] [Fm] [Wj] [R0|R1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>JI1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JI2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JI3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JI4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Sk] [Zn] [Fm] [Wj] [R0|R1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MGS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MGP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PHS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Sk] [Zn] [Fm] [Wj] [R0|R1]</t>
+    </r>
+  </si>
+  <si>
+    <t>Diffractive Optical Elements</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DEP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Sk] [Zn] [Fm] [Wj] [Ri]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HFR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Sk] [Zn] [Fm] [Wj] [Ri]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HFA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Sk] [Zn] [Fm] [Wj] [Ri]</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns spatial frequency for aspheric phase terms only. Not available: TNX|TNY|LEN</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>RER</t>
+  </si>
+  <si>
+    <t>AUT.ERF [ALL|ABR|CON|USR|SAB]</t>
+  </si>
+  <si>
+    <t>The value for the composite total error function or specified error function component. Errors returned:</t>
+  </si>
+  <si>
+    <t>9,999,000,000.001 – For the ALL keyword only, the run was irrecoverable, no data is available, or AUT hasn’t been run.</t>
+  </si>
+  <si>
+    <t>-1 – For individual error functions, the run was irrecoverable, no data is available, or AUT hasn’t been run.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The error function data (including from Global Synthesis) are saved in .LEN files. The data may become obsolete after a system change but if so, CODE V will display a warning. </t>
+  </si>
+  <si>
+    <t>You can also query the (OPT ERF) database item, which returns 1 if the error function is valid after running AUT or lens restore, or -1 if the data may be obsolete.</t>
+  </si>
+  <si>
+    <t>Keywords:</t>
+  </si>
+  <si>
+    <t>ALL Composite total error function. ERR.F. in output listing. (Default)</t>
+  </si>
+  <si>
+    <t>ABR Aberration error function. ABERR. F. in output listing.</t>
+  </si>
+  <si>
+    <t>CON Constraint error function. CONST. F. in output listing.</t>
+  </si>
+  <si>
+    <t>USR User-defined error function. UDERR. F. in output listing.</t>
+  </si>
+  <si>
+    <t>SAB As-Built Sensitivity (SAB) error function. SAB. F. in output listing.</t>
+  </si>
+  <si>
+    <t>AUT.EFC [Zn] [Fm] [Tk] X|Y|OPD|WAV</t>
+  </si>
+  <si>
+    <t>AUT.EFC [Zn] [Fm] SAB</t>
+  </si>
+  <si>
+    <t>The value for a specified error function component for an individual zoom, field, and focus position (Tk); X or Y for transverse ray aberration, OPD or WAV for wavefront error variance, or SAB (for focus T1 only).</t>
+  </si>
+  <si>
+    <t>-1 if the component was not used in the last AUTO run, after a lens is restored, or after changes are made to the system.</t>
+  </si>
+  <si>
+    <t>Error Function</t>
+  </si>
+  <si>
+    <t>Centroid Constraints</t>
+  </si>
+  <si>
+    <r>
+      <t>AUT.XCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Fk] [Zn]</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns the X centroid value</t>
+  </si>
+  <si>
+    <r>
+      <t>AUT.YCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Fk] [Zn]</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns the Y centroid value</t>
+  </si>
+  <si>
+    <t>Damping Factor</t>
+  </si>
+  <si>
+    <t>DMP</t>
+  </si>
+  <si>
+    <t>Returns the damping factor after the last major cycle.</t>
+  </si>
+  <si>
+    <t>User-defined Error Function</t>
+  </si>
+  <si>
+    <t>Value of user-defined aberration Ak in a user-defined error function or user-defined aberration specified by its non-default qualifiers.</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>available within AUT only</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ABR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ak
+ABR Fk Rk|Ek [Wk] [Zk] [Sk] [Gk] [Hk] X|Y|Z|L|M|N|SRL|SRM|SRN|AOI| AOR|LEN|OPL|DX|DY|OPD|DMD</t>
+    </r>
+  </si>
+  <si>
+    <t>SIN … single ray trace
+RSI … relative single ray trace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x-coordinate
+y-coord.
+Z-coord.
+L M N … direction cosines
+AOI … angle of incidence
+SRL, SRM, SRN … direction cosines of surface normal
+</t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AOI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SRL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SRM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SRN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Sk] [Zn] [Fm] [Wj] [Gj] [Ri]
+(L,M,N, are for ray following the surface)</t>
+    </r>
+  </si>
+  <si>
+    <t>NOTE: The following polarization data are available only for the chief ray (R1) or the previous ray traced. To obtain the data for the previous ray, use RSI or SIN to trace the ray, and then evaluate the database item without a ray qualifier or using R0.
+PXI ... pol. x-intensity
+PYI ... pol. y-intensity
+PTP .... ellipticity
+POR ... rotation of major axis from y-axis
+PFR ... polarization fraction</t>
+  </si>
+  <si>
+    <t>four real  components of the Jones matrix</t>
+  </si>
+  <si>
+    <t>four imag. components of the Jones matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGS, MGP … Magnitude of S and P Components of Polarization
+PHS, PHP … Phase (in degrees) of S and P Components of Polarization </t>
+  </si>
+  <si>
+    <t>Returns:
+-1 = Left-handed polarization
+1 = Right-handed polarization
+0 = Linear polarization</t>
+  </si>
+  <si>
+    <t>Returns last scale factor used
+(Default: 1.0)</t>
+  </si>
+  <si>
+    <t>Returns diffraction efficiency parameter. 
+See discussion in Bragg and Scalar 
+Diffraction Efficiency Calculations of 
+the CODE V Lens System Setup Reference Manual.
+Not available: TNX|TNY|LEN</t>
+  </si>
+  <si>
+    <t>For last single ray, returns surface number at which ray is first blocked by an aperture or obscuration
+&lt;0 = Ray is blocked by obscuration
+&gt;0 = Ray is blocked by aperture
+0 = Ray is not blocked</t>
+  </si>
+  <si>
+    <t>For last single ray, return ray error flag
+0 = Trace successful
+&gt;0 = Value is surface number where failure occurred
+&lt;0 = Ray failed when corresponding chief ray (RSI only) failed to trace through the center of the stop; |RER| is surface number where failure occurred
+&lt;0 = Ray failed when corresponding chief ray (RSI only) failed to trace through the center of the stop; |RER| is surface number where failure occurred</t>
+  </si>
+  <si>
+    <t>Returns total spatial frequency (2 points plus aspheric phase terms)., Not available: TNX|TNY|LEN</t>
+  </si>
+  <si>
+    <t>Return reay ray trace data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3591,6 +6518,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3606,7 +6548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3629,12 +6571,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3658,6 +6626,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3694,6 +6665,82 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4335,7 +7382,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="1">
         <v>0</v>
       </c>
@@ -4344,7 +7391,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="1">
         <v>1</v>
       </c>
@@ -4353,7 +7400,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="1">
         <v>-1</v>
       </c>
@@ -4448,7 +7495,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -4459,7 +7506,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="13" t="s">
         <v>107</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -4470,7 +7517,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -4552,16 +7599,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E174"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174:D174"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" customWidth="1"/>
   </cols>
@@ -4696,7 +7743,7 @@
       <c r="A13" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>138</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -4710,7 +7757,7 @@
       <c r="A14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>107</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4724,7 +7771,7 @@
       <c r="A15" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4762,7 +7809,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>147</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -4776,14 +7823,14 @@
       <c r="A20" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
         <v>149</v>
@@ -4793,7 +7840,7 @@
       <c r="A22" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>150</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -4807,7 +7854,7 @@
       <c r="A23" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>152</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -4821,7 +7868,7 @@
       <c r="A24" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>154</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -4835,7 +7882,7 @@
       <c r="A25" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -4849,7 +7896,7 @@
       <c r="A26" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>158</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -4896,7 +7943,7 @@
       <c r="A30" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="17" t="s">
         <v>163</v>
       </c>
       <c r="C30" t="s">
@@ -4907,13 +7954,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
+      <c r="B31" s="17"/>
       <c r="D31" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
+      <c r="B32" s="17"/>
       <c r="D32" s="7" t="s">
         <v>165</v>
       </c>
@@ -4927,7 +7974,7 @@
       <c r="A34" t="s">
         <v>169</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="16" t="s">
         <v>174</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -4938,21 +7985,21 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="15"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="15"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="16" t="s">
         <v>179</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -4960,7 +8007,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="15"/>
+      <c r="B38" s="16"/>
       <c r="C38" t="s">
         <v>182</v>
       </c>
@@ -4969,13 +8016,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="15"/>
+      <c r="B39" s="16"/>
       <c r="D39" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>183</v>
       </c>
       <c r="D40" s="7" t="s">
@@ -4983,7 +8030,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="17" t="s">
         <v>185</v>
       </c>
       <c r="C41" t="s">
@@ -4994,49 +8041,49 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
+      <c r="B42" s="17"/>
       <c r="D42" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
+      <c r="B43" s="17"/>
       <c r="D43" s="7" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
+      <c r="B44" s="17"/>
       <c r="D44" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="16"/>
+      <c r="B45" s="17"/>
       <c r="D45" s="7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="16"/>
+      <c r="B46" s="17"/>
       <c r="D46" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
+      <c r="B47" s="17"/>
       <c r="D47" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
+      <c r="B48" s="17"/>
       <c r="D48" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="16" t="s">
         <v>195</v>
       </c>
       <c r="C49" t="s">
@@ -5047,19 +8094,19 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="15"/>
+      <c r="B50" s="16"/>
       <c r="D50" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="15"/>
+      <c r="B51" s="16"/>
       <c r="D51" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="16" t="s">
         <v>199</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -5067,19 +8114,19 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="15"/>
+      <c r="B53" s="16"/>
       <c r="D53" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="15"/>
+      <c r="B54" s="16"/>
       <c r="D54" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="14" t="s">
         <v>200</v>
       </c>
       <c r="D55" s="7" t="s">
@@ -5103,7 +8150,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="12" t="s">
         <v>206</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -5111,7 +8158,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="14" t="s">
         <v>208</v>
       </c>
       <c r="D59" s="7" t="s">
@@ -5122,10 +8169,10 @@
       <c r="A61" t="s">
         <v>233</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="16" t="s">
         <v>214</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -5133,21 +8180,21 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="16" t="s">
         <v>215</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -5158,14 +8205,14 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="15"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="16" t="s">
         <v>219</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -5176,14 +8223,14 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="15"/>
+      <c r="B67" s="16"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="16" t="s">
         <v>220</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -5194,7 +8241,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="15"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
         <v>217</v>
@@ -5212,7 +8259,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="12" t="s">
         <v>224</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -5223,7 +8270,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="14" t="s">
         <v>227</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -5234,7 +8281,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="14" t="s">
         <v>230</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -5248,7 +8295,7 @@
       <c r="A74" t="s">
         <v>234</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="12" t="s">
         <v>235</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -5259,7 +8306,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="12" t="s">
         <v>237</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -5267,7 +8314,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="14" t="s">
         <v>240</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -5278,7 +8325,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="14" t="s">
         <v>243</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -5318,7 +8365,7 @@
       </c>
     </row>
     <row r="82" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="16" t="s">
         <v>251</v>
       </c>
       <c r="C82" t="s">
@@ -5329,37 +8376,37 @@
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="15"/>
+      <c r="B83" s="16"/>
       <c r="D83" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="15"/>
+      <c r="B84" s="16"/>
       <c r="D84" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="15"/>
+      <c r="B85" s="16"/>
       <c r="D85" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="15"/>
+      <c r="B86" s="16"/>
       <c r="D86" s="1" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="87" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B87" s="15"/>
+      <c r="B87" s="16"/>
       <c r="D87" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="15" t="s">
         <v>259</v>
       </c>
       <c r="C88" t="s">
@@ -5370,19 +8417,19 @@
       </c>
     </row>
     <row r="89" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B89" s="14"/>
+      <c r="B89" s="15"/>
       <c r="D89" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="90" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B90" s="14"/>
+      <c r="B90" s="15"/>
       <c r="D90" s="7" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="15" t="s">
         <v>264</v>
       </c>
       <c r="C91" t="s">
@@ -5393,19 +8440,19 @@
       </c>
     </row>
     <row r="92" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B92" s="14"/>
+      <c r="B92" s="15"/>
       <c r="D92" s="7" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="B93" s="14"/>
-      <c r="D93" s="17" t="s">
+      <c r="B93" s="15"/>
+      <c r="D93" s="18" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="16" t="s">
         <v>268</v>
       </c>
       <c r="C94" t="s">
@@ -5416,14 +8463,14 @@
       </c>
     </row>
     <row r="95" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B95" s="15"/>
-      <c r="D95" s="18" t="s">
+      <c r="B95" s="16"/>
+      <c r="D95" s="19" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="B96" s="15"/>
-      <c r="D96" s="18" t="s">
+      <c r="B96" s="16"/>
+      <c r="D96" s="19" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5440,20 +8487,20 @@
     </row>
     <row r="98" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18" t="s">
+      <c r="C98" s="19"/>
+      <c r="D98" s="19" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18" t="s">
+      <c r="C99" s="19"/>
+      <c r="D99" s="19" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="17" t="s">
         <v>278</v>
       </c>
       <c r="C100" t="s">
@@ -5464,19 +8511,19 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B101" s="16"/>
-      <c r="D101" s="17" t="s">
+      <c r="B101" s="17"/>
+      <c r="D101" s="18" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="B102" s="16"/>
-      <c r="D102" s="17" t="s">
+      <c r="B102" s="17"/>
+      <c r="D102" s="18" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="17" t="s">
         <v>281</v>
       </c>
       <c r="C103" t="s">
@@ -5487,14 +8534,14 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B104" s="16"/>
-      <c r="D104" s="17" t="s">
+      <c r="B104" s="17"/>
+      <c r="D104" s="18" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="B105" s="16"/>
-      <c r="D105" s="17" t="s">
+      <c r="B105" s="17"/>
+      <c r="D105" s="18" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5511,13 +8558,13 @@
     </row>
     <row r="107" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
-      <c r="D107" s="18" t="s">
+      <c r="D107" s="19" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
-      <c r="D108" s="18" t="s">
+      <c r="D108" s="19" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5525,7 +8572,7 @@
       <c r="A109" t="s">
         <v>289</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="12" t="s">
         <v>290</v>
       </c>
       <c r="C109" s="9" t="s">
@@ -5536,7 +8583,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="12" t="s">
         <v>293</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -5544,7 +8591,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="14" t="s">
         <v>295</v>
       </c>
       <c r="C111" t="s">
@@ -5555,7 +8602,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="14" t="s">
         <v>298</v>
       </c>
       <c r="C112" t="s">
@@ -5566,7 +8613,7 @@
       </c>
     </row>
     <row r="113" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="12" t="s">
         <v>301</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -5574,7 +8621,7 @@
       </c>
     </row>
     <row r="114" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="12" t="s">
         <v>303</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -5582,7 +8629,7 @@
       </c>
     </row>
     <row r="115" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="14" t="s">
         <v>305</v>
       </c>
       <c r="D115" s="7" t="s">
@@ -5590,7 +8637,7 @@
       </c>
     </row>
     <row r="116" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="14" t="s">
         <v>307</v>
       </c>
       <c r="D116" s="7" t="s">
@@ -5598,7 +8645,7 @@
       </c>
     </row>
     <row r="117" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="12" t="s">
         <v>309</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -5606,7 +8653,7 @@
       </c>
     </row>
     <row r="118" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="12" t="s">
         <v>311</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -5614,7 +8661,7 @@
       </c>
     </row>
     <row r="119" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="15" t="s">
         <v>313</v>
       </c>
       <c r="D119" s="7" t="s">
@@ -5622,13 +8669,13 @@
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="14"/>
+      <c r="B120" s="15"/>
       <c r="D120" s="7" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="121" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="14" t="s">
         <v>316</v>
       </c>
       <c r="D121" s="7" t="s">
@@ -5636,7 +8683,7 @@
       </c>
     </row>
     <row r="122" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="12" t="s">
         <v>318</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -5652,7 +8699,7 @@
       </c>
     </row>
     <row r="124" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B124" s="13" t="s">
+      <c r="B124" s="14" t="s">
         <v>322</v>
       </c>
       <c r="D124" s="7" t="s">
@@ -5660,7 +8707,7 @@
       </c>
     </row>
     <row r="125" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B125" s="13" t="s">
+      <c r="B125" s="14" t="s">
         <v>324</v>
       </c>
       <c r="D125" s="7" t="s">
@@ -5668,7 +8715,7 @@
       </c>
     </row>
     <row r="126" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="12" t="s">
         <v>326</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -5676,7 +8723,7 @@
       </c>
     </row>
     <row r="127" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="12" t="s">
         <v>328</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -5684,10 +8731,10 @@
       </c>
     </row>
     <row r="128" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="C128" s="14"/>
+      <c r="C128" s="15"/>
       <c r="D128" s="7" t="s">
         <v>341</v>
       </c>
@@ -5696,7 +8743,7 @@
       <c r="B129" s="7"/>
     </row>
     <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="12" t="s">
         <v>331</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -5704,7 +8751,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="12" t="s">
         <v>333</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -5712,7 +8759,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="15" t="s">
         <v>335</v>
       </c>
       <c r="D132" s="7" t="s">
@@ -5720,11 +8767,11 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="14"/>
+      <c r="B133" s="15"/>
       <c r="C133" s="7"/>
     </row>
     <row r="134" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="15" t="s">
         <v>336</v>
       </c>
       <c r="D134" s="7" t="s">
@@ -5732,11 +8779,11 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="14"/>
+      <c r="B135" s="15"/>
       <c r="C135" s="7"/>
     </row>
     <row r="136" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="16" t="s">
         <v>337</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -5744,24 +8791,24 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="15"/>
+      <c r="B137" s="16"/>
       <c r="C137" s="1"/>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="15" t="s">
+      <c r="B138" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="C138" s="15"/>
-      <c r="D138" s="19" t="s">
+      <c r="C138" s="16"/>
+      <c r="D138" s="20" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="7"/>
-      <c r="D139" s="19"/>
+      <c r="D139" s="20"/>
     </row>
     <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B140" s="13" t="s">
+      <c r="B140" s="14" t="s">
         <v>339</v>
       </c>
       <c r="D140" s="7" t="s">
@@ -5769,10 +8816,10 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="15" t="s">
+      <c r="B141" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="C141" s="15"/>
+      <c r="C141" s="16"/>
       <c r="D141" s="1" t="s">
         <v>347</v>
       </c>
@@ -5781,7 +8828,7 @@
       <c r="A142" t="s">
         <v>348</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="12" t="s">
         <v>349</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -5792,15 +8839,15 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="15" t="s">
+      <c r="B143" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
     </row>
     <row r="144" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B144" s="16"/>
-      <c r="C144" s="16" t="s">
+      <c r="B144" s="17"/>
+      <c r="C144" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D144" s="7" t="s">
@@ -5808,35 +8855,35 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B145" s="16"/>
-      <c r="C145" s="16"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
       <c r="D145" s="7" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B146" s="16"/>
-      <c r="C146" s="16"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
       <c r="D146" s="7" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B147" s="16"/>
-      <c r="C147" s="16"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
       <c r="D147" s="7" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B148" s="16"/>
-      <c r="C148" s="16"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="17"/>
       <c r="D148" s="7" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B149" s="13" t="s">
+      <c r="B149" s="14" t="s">
         <v>357</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -5847,11 +8894,11 @@
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="15" t="s">
+      <c r="B150" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
     </row>
     <row r="151" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
@@ -5863,10 +8910,10 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="C152" s="16" t="s">
+      <c r="C152" s="17" t="s">
         <v>362</v>
       </c>
       <c r="D152" s="7" t="s">
@@ -5874,24 +8921,24 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B153" s="14"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="20" t="s">
+      <c r="B153" s="15"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="21" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B154" s="14"/>
-      <c r="C154" s="16"/>
-      <c r="D154" s="20" t="s">
+      <c r="B154" s="15"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="21" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="C155" s="16" t="s">
+      <c r="C155" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D155" s="7" t="s">
@@ -5899,29 +8946,29 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B156" s="14"/>
-      <c r="C156" s="16"/>
-      <c r="D156" s="20" t="s">
+      <c r="B156" s="15"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="21" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B157" s="14"/>
-      <c r="C157" s="16"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="17"/>
       <c r="D157" s="7" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B158" s="14"/>
-      <c r="C158" s="16"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="17"/>
       <c r="D158" s="7" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B159" s="14"/>
-      <c r="C159" s="16"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="17"/>
       <c r="D159" s="7" t="s">
         <v>371</v>
       </c>
@@ -5943,21 +8990,21 @@
     <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
-      <c r="D161" s="21" t="s">
+      <c r="D161" s="22" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
-      <c r="D162" s="21" t="s">
+      <c r="D162" s="22" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
-      <c r="D163" s="21" t="s">
+      <c r="D163" s="22" t="s">
         <v>377</v>
       </c>
     </row>
@@ -5975,21 +9022,21 @@
     <row r="165" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
-      <c r="D165" s="21" t="s">
+      <c r="D165" s="22" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
-      <c r="D166" s="21" t="s">
+      <c r="D166" s="22" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
-      <c r="D167" s="21" t="s">
+      <c r="D167" s="22" t="s">
         <v>382</v>
       </c>
     </row>
@@ -6017,7 +9064,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="15" t="s">
+      <c r="B171" s="16" t="s">
         <v>388</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -6025,13 +9072,13 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B172" s="15"/>
+      <c r="B172" s="16"/>
       <c r="D172" s="1" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B173" s="15"/>
+      <c r="B173" s="16"/>
       <c r="D173" s="1" t="s">
         <v>391</v>
       </c>
@@ -6040,22 +9087,480 @@
       <c r="A174" t="s">
         <v>392</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B174" s="12" t="s">
         <v>393</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>394</v>
       </c>
     </row>
+    <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B175" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B176" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B177" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B178" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>414</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C183" s="7"/>
+      <c r="D183" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B184" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C185" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B186" s="1"/>
+      <c r="C186" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B187" s="7"/>
+      <c r="C187" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B188" s="7"/>
+      <c r="C188" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B189" s="1"/>
+      <c r="C189" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C191" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B192" s="7"/>
+      <c r="C192" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B193" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B194" s="16"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B195" s="16"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B196" s="16"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B198" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B199" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="B200" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B201" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C205" s="16"/>
+      <c r="D205" s="16"/>
+    </row>
+    <row r="206" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B206" s="7"/>
+      <c r="C206" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>441</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B208" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B209" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>448</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B211" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B212" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B213" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B214" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>458</v>
+      </c>
+      <c r="B215" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B216" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B217" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>464</v>
+      </c>
+      <c r="B218" t="s">
+        <v>465</v>
+      </c>
+      <c r="C218" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B219" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B220" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C220" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B221" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C221" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B222" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B223" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B224" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C224" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C229" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C230" t="s">
+        <v>482</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="49">
+    <mergeCell ref="B201:B204"/>
+    <mergeCell ref="C201:C204"/>
+    <mergeCell ref="B205:D205"/>
     <mergeCell ref="B164:B167"/>
     <mergeCell ref="C164:C167"/>
     <mergeCell ref="B168:B170"/>
     <mergeCell ref="B171:B173"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="C193:C196"/>
     <mergeCell ref="B152:B154"/>
     <mergeCell ref="C152:C154"/>
     <mergeCell ref="B155:B159"/>
@@ -6100,4 +9605,1225 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="36"/>
+    <col min="6" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E2" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="E3" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="E4" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="E5" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E6" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="E7" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="E8" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="E9" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E10" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E11" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="E12" s="36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E13" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="E14" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E15" s="36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="E16" s="36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="E17" s="36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E18" s="36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="E19" s="36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="E20" s="36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E21" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="E22" s="36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="E23" s="36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E24" s="36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E25" s="36">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="E26" s="36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E27" s="36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E28" s="36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="E29" s="36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="E30" s="36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E31" s="36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E32" s="36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="E33" s="36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="E34" s="36">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="E35" s="36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="E36" s="36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E37" s="36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="E38" s="36">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="E39" s="36">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="E40" s="36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="E41" s="36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E42" s="36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>621</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>632</v>
+      </c>
+      <c r="E43" s="36">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="E44" s="36">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="E45" s="36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E46" s="36">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="36">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>577</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="E48" s="31">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="32"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="C50" t="s">
+        <v>623</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="36">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>581</v>
+      </c>
+      <c r="C51" t="s">
+        <v>624</v>
+      </c>
+      <c r="D51" s="30"/>
+      <c r="E51" s="36">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>582</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="D52" s="27"/>
+      <c r="E52" s="36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>627</v>
+      </c>
+      <c r="E53" s="38">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="48" t="s">
+        <v>628</v>
+      </c>
+      <c r="E54" s="38">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>585</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>631</v>
+      </c>
+      <c r="E55" s="38">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="E56" s="36">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>588</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>629</v>
+      </c>
+      <c r="E57" s="38">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="255" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>589</v>
+      </c>
+      <c r="C58" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>630</v>
+      </c>
+      <c r="E58" s="38">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>607</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>612</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>615</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="25"/>
+      <c r="D21" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="C14:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>